--- a/reference/IN10/raw_variables/CBHPI.xlsx
+++ b/reference/IN10/raw_variables/CBHPI.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\temp\IN10\raw_variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D515ACB-FBBE-419E-8302-1CDD7E8A599E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F38172-25AE-4945-AC1A-2395B8A2E868}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descrption" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="mimicdata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -200,6 +200,12 @@
       </rPr>
       <t>West</t>
     </r>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -424,21 +430,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -465,6 +456,21 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -841,25 +847,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="11" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
-      <c r="A2" s="10"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -892,64 +898,64 @@
       <c r="A3" s="7">
         <v>1963</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="10">
         <v>11.7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="10">
         <v>11.7</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="10">
         <v>11.6</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="10">
         <v>11.5</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="10">
         <v>11.7</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="10">
         <v>9.5</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="10">
         <v>14</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="10">
         <v>14.4</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M3" s="14"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1">
       <c r="A4" s="8">
         <v>1964</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="12">
         <v>11.8</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="12">
         <v>11.5</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="12">
         <v>11.6</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="12">
         <v>11.7</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="12">
         <v>11.9</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="12">
         <v>9</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="12">
         <v>13.5</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="12">
         <v>14.8</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="13">
         <v>8.5</v>
       </c>
     </row>
@@ -957,31 +963,31 @@
       <c r="A5" s="8">
         <v>1965</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="12">
         <v>12</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="12">
         <v>11.9</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="12">
         <v>11.9</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="12">
         <v>11.9</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="12">
         <v>12.2</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="12">
         <v>9.5</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="12">
         <v>14</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="12">
         <v>14.9</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="13">
         <v>8.5</v>
       </c>
     </row>
@@ -989,31 +995,31 @@
       <c r="A6" s="8">
         <v>1966</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="12">
         <v>12.5</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="12">
         <v>12.1</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="12">
         <v>12.6</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="12">
         <v>12.4</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="12">
         <v>12.7</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="12">
         <v>10.1</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="12">
         <v>14.8</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="12">
         <v>15.6</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="13">
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -1021,31 +1027,31 @@
       <c r="A7" s="8">
         <v>1967</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="12">
         <v>12.8</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="12">
         <v>12.8</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="12">
         <v>12.7</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="12">
         <v>12.7</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="12">
         <v>13</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="12">
         <v>10.5</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="12">
         <v>15.4</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="12">
         <v>15.9</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="13">
         <v>8.9</v>
       </c>
     </row>
@@ -1053,31 +1059,31 @@
       <c r="A8" s="8">
         <v>1968</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="12">
         <v>13.5</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="12">
         <v>13.3</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="12">
         <v>13.4</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="12">
         <v>13.4</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="12">
         <v>13.8</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="12">
         <v>11.6</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="12">
         <v>16.399999999999999</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="12">
         <v>16.5</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="13">
         <v>9.1</v>
       </c>
     </row>
@@ -1085,31 +1091,31 @@
       <c r="A9" s="8">
         <v>1969</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="12">
         <v>14.5</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="12">
         <v>14.3</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="12">
         <v>14.5</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="12">
         <v>14.6</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="12">
         <v>14.8</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="12">
         <v>12.6</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="12">
         <v>17.899999999999999</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="12">
         <v>17.600000000000001</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="13">
         <v>9.9</v>
       </c>
     </row>
@@ -1117,31 +1123,31 @@
       <c r="A10" s="8">
         <v>1970</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="12">
         <v>14.9</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="12">
         <v>14.7</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="12">
         <v>15.2</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="12">
         <v>14.8</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="12">
         <v>15</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="12">
         <v>13.4</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="12">
         <v>17.899999999999999</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="12">
         <v>18.2</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="13">
         <v>10.199999999999999</v>
       </c>
     </row>
@@ -1149,31 +1155,31 @@
       <c r="A11" s="8">
         <v>1971</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="12">
         <v>15.8</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="12">
         <v>15.3</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="12">
         <v>15.7</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="12">
         <v>15.9</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="12">
         <v>16.100000000000001</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="12">
         <v>14.3</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="12">
         <v>18.600000000000001</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="12">
         <v>19.600000000000001</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="13">
         <v>10.5</v>
       </c>
     </row>
@@ -1181,31 +1187,31 @@
       <c r="A12" s="8">
         <v>1972</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="12">
         <v>16.8</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="12">
         <v>16.399999999999999</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="12">
         <v>16.5</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="12">
         <v>16.8</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="12">
         <v>17.399999999999999</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="12">
         <v>15.4</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="12">
         <v>19.8</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="12">
         <v>20.8</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="13">
         <v>11.1</v>
       </c>
     </row>
@@ -1213,31 +1219,31 @@
       <c r="A13" s="8">
         <v>1973</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="12">
         <v>18.2</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="12">
         <v>17.5</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="12">
         <v>18.100000000000001</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="12">
         <v>18.7</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="12">
         <v>19</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="12">
         <v>16.600000000000001</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="12">
         <v>21.3</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="12">
         <v>22.2</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="13">
         <v>12.5</v>
       </c>
     </row>
@@ -1245,31 +1251,31 @@
       <c r="A14" s="8">
         <v>1974</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="12">
         <v>19.899999999999999</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="12">
         <v>19.399999999999999</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="12">
         <v>19.8</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="12">
         <v>20.3</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="12">
         <v>20.8</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="12">
         <v>18.100000000000001</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="12">
         <v>23.1</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="12">
         <v>24</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="13">
         <v>14.1</v>
       </c>
     </row>
@@ -1277,31 +1283,31 @@
       <c r="A15" s="8">
         <v>1975</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="12">
         <v>22.1</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="12">
         <v>21.6</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="12">
         <v>21.9</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="12">
         <v>22.1</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="12">
         <v>22.7</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="12">
         <v>19.600000000000001</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="12">
         <v>25.4</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="12">
         <v>26.4</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="13">
         <v>15.9</v>
       </c>
     </row>
@@ -1309,31 +1315,31 @@
       <c r="A16" s="8">
         <v>1976</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="12">
         <v>24</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="12">
         <v>23.1</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="12">
         <v>23.8</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="12">
         <v>24.5</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="12">
         <v>24.9</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="12">
         <v>20.399999999999999</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="12">
         <v>27.7</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="12">
         <v>28.2</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="13">
         <v>17.600000000000001</v>
       </c>
     </row>
@@ -1341,31 +1347,31 @@
       <c r="A17" s="8">
         <v>1977</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="12">
         <v>27</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="12">
         <v>25.8</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="12">
         <v>26.7</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="12">
         <v>27.2</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="12">
         <v>28.8</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="12">
         <v>21.8</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="12">
         <v>30.8</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="12">
         <v>31</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="13">
         <v>20.8</v>
       </c>
     </row>
@@ -1373,31 +1379,31 @@
       <c r="A18" s="8">
         <v>1978</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="12">
         <v>30.9</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="12">
         <v>29.2</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="12">
         <v>30.4</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="12">
         <v>31.7</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="12">
         <v>32.700000000000003</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="12">
         <v>24.3</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="12">
         <v>35.200000000000003</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="12">
         <v>34.799999999999997</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="13">
         <v>24.7</v>
       </c>
     </row>
@@ -1405,31 +1411,31 @@
       <c r="A19" s="8">
         <v>1979</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="12">
         <v>35.299999999999997</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="12">
         <v>33.6</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="12">
         <v>35.5</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="12">
         <v>36</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="12">
         <v>37.4</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="12">
         <v>27.5</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="12">
         <v>39.4</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="12">
         <v>39.799999999999997</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="13">
         <v>28.4</v>
       </c>
     </row>
@@ -1437,31 +1443,31 @@
       <c r="A20" s="8">
         <v>1980</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="12">
         <v>38.9</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="12">
         <v>38.1</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="12">
         <v>38.700000000000003</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="12">
         <v>39.6</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="12">
         <v>39.9</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="12">
         <v>30.2</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="12">
         <v>41.2</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="12">
         <v>44.4</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="13">
         <v>31.9</v>
       </c>
     </row>
@@ -1469,31 +1475,31 @@
       <c r="A21" s="8">
         <v>1981</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="12">
         <v>42</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="12">
         <v>41.7</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="12">
         <v>42.3</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="12">
         <v>42.3</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="12">
         <v>42.6</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="12">
         <v>32.799999999999997</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="12">
         <v>45.1</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="12">
         <v>48.3</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="13">
         <v>33.799999999999997</v>
       </c>
     </row>
@@ -1501,31 +1507,31 @@
       <c r="A22" s="8">
         <v>1982</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="12">
         <v>43</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="12">
         <v>43.6</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="12">
         <v>43.4</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="12">
         <v>43</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="12">
         <v>42.6</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="12">
         <v>34</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="12">
         <v>46.4</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="12">
         <v>49.8</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="13">
         <v>34.299999999999997</v>
       </c>
     </row>
@@ -1533,31 +1539,31 @@
       <c r="A23" s="8">
         <v>1983</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="12">
         <v>43.9</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="12">
         <v>43.7</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="12">
         <v>43.8</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="12">
         <v>44.5</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="12">
         <v>44.5</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="12">
         <v>36.1</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="12">
         <v>46.2</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="12">
         <v>51.2</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="13">
         <v>34.9</v>
       </c>
     </row>
@@ -1565,31 +1571,31 @@
       <c r="A24" s="8">
         <v>1984</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="12">
         <v>45.7</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="12">
         <v>44.9</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="12">
         <v>45.9</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="12">
         <v>46.3</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="12">
         <v>46.8</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="12">
         <v>39.200000000000003</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="12">
         <v>49</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="12">
         <v>52.8</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="13">
         <v>36.200000000000003</v>
       </c>
     </row>
@@ -1597,31 +1603,31 @@
       <c r="A25" s="8">
         <v>1985</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="12">
         <v>46.2</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="12">
         <v>46.6</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="12">
         <v>46.3</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="12">
         <v>46.1</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="12">
         <v>46.9</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="12">
         <v>43.1</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="12">
         <v>48.2</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="12">
         <v>53.9</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="13">
         <v>36.4</v>
       </c>
     </row>
@@ -1629,31 +1635,31 @@
       <c r="A26" s="8">
         <v>1986</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="12">
         <v>48</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="12">
         <v>47.2</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="12">
         <v>48.4</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="12">
         <v>49.1</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="12">
         <v>48.7</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="12">
         <v>49.5</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="12">
         <v>51</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="12">
         <v>55.5</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="13">
         <v>37.299999999999997</v>
       </c>
     </row>
@@ -1661,31 +1667,31 @@
       <c r="A27" s="8">
         <v>1987</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="12">
         <v>50.6</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="12">
         <v>49.9</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="12">
         <v>50.8</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="12">
         <v>51.5</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="12">
         <v>51.7</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="12">
         <v>56.2</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="12">
         <v>54.4</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="12">
         <v>57.6</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="13">
         <v>39.299999999999997</v>
       </c>
     </row>
@@ -1693,31 +1699,31 @@
       <c r="A28" s="8">
         <v>1988</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="12">
         <v>52.5</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="12">
         <v>52.4</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="12">
         <v>52.6</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="12">
         <v>53.2</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="12">
         <v>53.1</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="12">
         <v>57.6</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="12">
         <v>56.8</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="12">
         <v>58.8</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="13">
         <v>41.4</v>
       </c>
     </row>
@@ -1725,31 +1731,31 @@
       <c r="A29" s="8">
         <v>1989</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="12">
         <v>54.6</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="12">
         <v>54.2</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="12">
         <v>55.2</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="12">
         <v>55.2</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="12">
         <v>54.9</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="12">
         <v>59.2</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="12">
         <v>58.1</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="12">
         <v>60.5</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="13">
         <v>44</v>
       </c>
     </row>
@@ -1757,31 +1763,31 @@
       <c r="A30" s="8">
         <v>1990</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="12">
         <v>55.7</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="12">
         <v>56.1</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="12">
         <v>55.5</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="12">
         <v>56.3</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="12">
         <v>55.7</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="12">
         <v>58</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="12">
         <v>58.6</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="12">
         <v>60.6</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="13">
         <v>46.2</v>
       </c>
     </row>
@@ -1789,31 +1795,31 @@
       <c r="A31" s="8">
         <v>1991</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="12">
         <v>56.4</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="12">
         <v>55.9</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="12">
         <v>57</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="12">
         <v>57.5</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="12">
         <v>56.2</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="12">
         <v>56.2</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="12">
         <v>60.1</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="12">
         <v>61.8</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="13">
         <v>46.4</v>
       </c>
     </row>
@@ -1821,31 +1827,31 @@
       <c r="A32" s="8">
         <v>1992</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="12">
         <v>57.2</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="12">
         <v>56.6</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="12">
         <v>56.6</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="12">
         <v>56.7</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="12">
         <v>58.2</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="12">
         <v>60.5</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="12">
         <v>61.2</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="12">
         <v>62.4</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="13">
         <v>46.7</v>
       </c>
     </row>
@@ -1853,31 +1859,31 @@
       <c r="A33" s="8">
         <v>1993</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="12">
         <v>59.4</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="12">
         <v>57.9</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="12">
         <v>59.9</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="12">
         <v>59.7</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="12">
         <v>59.6</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="12">
         <v>57.4</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="12">
         <v>65.2</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="12">
         <v>65.5</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="13">
         <v>47.8</v>
       </c>
     </row>
@@ -1885,31 +1891,31 @@
       <c r="A34" s="8">
         <v>1994</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="12">
         <v>62.9</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="12">
         <v>62.4</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="12">
         <v>62.9</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="12">
         <v>63.1</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="12">
         <v>63.4</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="12">
         <v>62</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="12">
         <v>69.400000000000006</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="12">
         <v>68.099999999999994</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="13">
         <v>51.9</v>
       </c>
     </row>
@@ -1917,31 +1923,31 @@
       <c r="A35" s="8">
         <v>1995</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="12">
         <v>64.3</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="12">
         <v>63.7</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="12">
         <v>64.2</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="12">
         <v>64.7</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="12">
         <v>63.6</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="12">
         <v>62.3</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="12">
         <v>70.900000000000006</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="12">
         <v>70.099999999999994</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="13">
         <v>52.7</v>
       </c>
     </row>
@@ -1949,31 +1955,31 @@
       <c r="A36" s="8">
         <v>1996</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="12">
         <v>66</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="12">
         <v>65.900000000000006</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="12">
         <v>65.7</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="12">
         <v>67.099999999999994</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="12">
         <v>65.599999999999994</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="12">
         <v>63.2</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="12">
         <v>72.5</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="12">
         <v>71.2</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="13">
         <v>55.3</v>
       </c>
     </row>
@@ -1981,31 +1987,31 @@
       <c r="A37" s="8">
         <v>1997</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="12">
         <v>67.5</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="12">
         <v>66.599999999999994</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="12">
         <v>67.8</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="12">
         <v>67.5</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="12">
         <v>67.099999999999994</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="12">
         <v>65.900000000000006</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="12">
         <v>74.3</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="12">
         <v>72.7</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J37" s="13">
         <v>56.5</v>
       </c>
     </row>
@@ -2013,31 +2019,31 @@
       <c r="A38" s="8">
         <v>1998</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="12">
         <v>69.2</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="12">
         <v>68.8</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="12">
         <v>68.2</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="12">
         <v>69.400000000000006</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="12">
         <v>70.099999999999994</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="12">
         <v>66.099999999999994</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="12">
         <v>76</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="12">
         <v>74.400000000000006</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="13">
         <v>58.4</v>
       </c>
     </row>
@@ -2045,31 +2051,31 @@
       <c r="A39" s="8">
         <v>1999</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="12">
         <v>72.8</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="12">
         <v>71.099999999999994</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="12">
         <v>72.7</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="12">
         <v>73</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="12">
         <v>73</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="12">
         <v>69.099999999999994</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="12">
         <v>79.5</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="12">
         <v>78.099999999999994</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="13">
         <v>62</v>
       </c>
     </row>
@@ -2077,31 +2083,31 @@
       <c r="A40" s="8">
         <v>2000</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="12">
         <v>75.599999999999994</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="12">
         <v>74.3</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="12">
         <v>74.5</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="12">
         <v>75.8</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="12">
         <v>76.2</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="12">
         <v>73</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="12">
         <v>83.5</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="12">
         <v>80.599999999999994</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="13">
         <v>64.400000000000006</v>
       </c>
     </row>
@@ -2109,31 +2115,31 @@
       <c r="A41" s="8">
         <v>2001</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="12">
         <v>77.900000000000006</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="12">
         <v>76.900000000000006</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="12">
         <v>77.3</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="12">
         <v>78.099999999999994</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="12">
         <v>79.099999999999994</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="12">
         <v>76.7</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="12">
         <v>84.4</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="12">
         <v>82.8</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="13">
         <v>67.099999999999994</v>
       </c>
     </row>
@@ -2141,31 +2147,31 @@
       <c r="A42" s="8">
         <v>2002</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="12">
         <v>81.400000000000006</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="12">
         <v>80.900000000000006</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="12">
         <v>81.3</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="12">
         <v>80.599999999999994</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="12">
         <v>83.8</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="12">
         <v>80.2</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="12">
         <v>86.1</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="12">
         <v>86.3</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="13">
         <v>71.5</v>
       </c>
     </row>
@@ -2173,31 +2179,31 @@
       <c r="A43" s="8">
         <v>2003</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="12">
         <v>86</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="12">
         <v>84.3</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="12">
         <v>84.6</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="12">
         <v>87.1</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="12">
         <v>88.5</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="12">
         <v>84.3</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="12">
         <v>90.6</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="12">
         <v>89.4</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="13">
         <v>78.2</v>
       </c>
     </row>
@@ -2205,31 +2211,31 @@
       <c r="A44" s="8">
         <v>2004</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="12">
         <v>92.8</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="12">
         <v>91.3</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="12">
         <v>91.8</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="12">
         <v>94.8</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="12">
         <v>95</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="12">
         <v>91.6</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="12">
         <v>96.7</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="12">
         <v>94.4</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J44" s="13">
         <v>88.2</v>
       </c>
     </row>
@@ -2237,31 +2243,31 @@
       <c r="A45" s="8">
         <v>2005</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="12">
         <v>100</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="12">
         <v>96.5</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="12">
         <v>99.2</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="12">
         <v>101.4</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="12">
         <v>103.9</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="12">
         <v>100</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="12">
         <v>100</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="12">
         <v>100</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J45" s="13">
         <v>100</v>
       </c>
     </row>
@@ -2269,31 +2275,31 @@
       <c r="A46" s="8">
         <v>2006</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="12">
         <v>104.7</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="12">
         <v>104.1</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="12">
         <v>105.7</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="12">
         <v>104.8</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="12">
         <v>103.8</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="12">
         <v>102.6</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="12">
         <v>102.9</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="12">
         <v>105.4</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J46" s="13">
         <v>105.2</v>
       </c>
     </row>
@@ -2301,31 +2307,31 @@
       <c r="A47" s="8">
         <v>2007</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="12">
         <v>104.9</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="12">
         <v>107.2</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="12">
         <v>105.9</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="12">
         <v>103</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="12">
         <v>102.1</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="12">
         <v>101.5</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="12">
         <v>102.8</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="12">
         <v>107.4</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J47" s="13">
         <v>102.6</v>
       </c>
     </row>
@@ -2333,31 +2339,31 @@
       <c r="A48" s="8">
         <v>2008</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="12">
         <v>99.5</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="12">
         <v>98.8</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="12">
         <v>102.2</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="12">
         <v>100.2</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="12">
         <v>95.7</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="12">
         <v>100.8</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="12">
         <v>98.9</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="12">
         <v>103.7</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="13">
         <v>92.7</v>
       </c>
     </row>
@@ -2365,31 +2371,31 @@
       <c r="A49" s="8">
         <v>2009</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="12">
         <v>95.1</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="12">
         <v>92.7</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="12">
         <v>96.2</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="12">
         <v>94.3</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="12">
         <v>96.2</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="12">
         <v>97.1</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="12">
         <v>96</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="12">
         <v>101.1</v>
       </c>
-      <c r="J49" s="18">
+      <c r="J49" s="13">
         <v>84.8</v>
       </c>
     </row>
@@ -2397,31 +2403,31 @@
       <c r="A50" s="8">
         <v>2010</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="12">
         <v>95</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="12">
         <v>94.8</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="12">
         <v>95.2</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="12">
         <v>94.2</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="12">
         <v>96.3</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="12">
         <v>101.1</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="12">
         <v>96.9</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="12">
         <v>99.5</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J50" s="13">
         <v>85.4</v>
       </c>
     </row>
@@ -2429,31 +2435,31 @@
       <c r="A51" s="8">
         <v>2011</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="12">
         <v>94.3</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="12">
         <v>93.7</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="12">
         <v>94.5</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="12">
         <v>93</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="12">
         <v>94</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="12">
         <v>100</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="12">
         <v>97.8</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="12">
         <v>99.6</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="13">
         <v>83.1</v>
       </c>
     </row>
@@ -2461,31 +2467,31 @@
       <c r="A52" s="8">
         <v>2012</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="12">
         <v>97.6</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="12">
         <v>94</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="12">
         <v>95.2</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="12">
         <v>98.9</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="12">
         <v>100</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="12">
         <v>102.1</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="12">
         <v>101.5</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="12">
         <v>102.7</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J52" s="13">
         <v>86.3</v>
       </c>
     </row>
@@ -2493,31 +2499,31 @@
       <c r="A53" s="8">
         <v>2013</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="12">
         <v>104.7</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="12">
         <v>101.3</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="12">
         <v>104.7</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="12">
         <v>104.8</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="12">
         <v>105.8</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="12">
         <v>108.2</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="12">
         <v>105.3</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="12">
         <v>110.1</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J53" s="13">
         <v>94.7</v>
       </c>
     </row>
@@ -2525,31 +2531,31 @@
       <c r="A54" s="8">
         <v>2014</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="12">
         <v>110.2</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="12">
         <v>106.8</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="12">
         <v>112.7</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="12">
         <v>112.1</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="12">
         <v>114.4</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="12">
         <v>115.2</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="12">
         <v>112.6</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="12">
         <v>115.4</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J54" s="13">
         <v>99.5</v>
       </c>
     </row>
@@ -2557,31 +2563,31 @@
       <c r="A55" s="8">
         <v>2015</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="12">
         <v>112.9</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="12">
         <v>111</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="12">
         <v>110.7</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="12">
         <v>112.8</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="12">
         <v>116.9</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="12">
         <v>115.7</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="12">
         <v>116.4</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="12">
         <v>118.3</v>
       </c>
-      <c r="J55" s="18">
+      <c r="J55" s="13">
         <v>101.9</v>
       </c>
     </row>
@@ -2589,31 +2595,31 @@
       <c r="A56" s="8">
         <v>2016</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="12">
         <v>120.4</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="12">
         <v>119</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="12">
         <v>119</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="12">
         <v>122.4</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="12">
         <v>123.7</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="12">
         <v>121</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="12">
         <v>118.7</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="12">
         <v>125.1</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J56" s="13">
         <v>113.3</v>
       </c>
     </row>
@@ -2621,31 +2627,31 @@
       <c r="A57" s="8">
         <v>2017</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="12">
         <v>126.8</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="12">
         <v>124.7</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="12">
         <v>126.4</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="12">
         <v>128.4</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="12">
         <v>127.8</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="12">
         <v>130.5</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="12">
         <v>126.5</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="12">
         <v>131.9</v>
       </c>
-      <c r="J57" s="18">
+      <c r="J57" s="13">
         <v>117.9</v>
       </c>
     </row>
@@ -2653,31 +2659,31 @@
       <c r="A58" s="8">
         <v>2018</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="12">
         <v>132.4</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="12">
         <v>129.80000000000001</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="12">
         <v>131</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="12">
         <v>132.5</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="12">
         <v>135.1</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="12">
         <v>127.6</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="12">
         <v>128.9</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="12">
         <v>136.19999999999999</v>
       </c>
-      <c r="J58" s="18">
+      <c r="J58" s="13">
         <v>128.9</v>
       </c>
     </row>
@@ -2685,51 +2691,51 @@
       <c r="A59" s="8">
         <v>2019</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="14">
         <v>135.5</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="12">
         <v>129.9</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="12">
         <v>133.9</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="12">
         <v>137.69999999999999</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="12">
         <v>137.1</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="12">
         <v>127.7</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="12">
         <v>134.1</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="12">
         <v>141.9</v>
       </c>
-      <c r="J59" s="18">
+      <c r="J59" s="13">
         <v>127.5</v>
       </c>
-      <c r="M59" s="22"/>
+      <c r="M59" s="17"/>
     </row>
     <row r="60" spans="1:13" ht="12" customHeight="1">
       <c r="A60" s="8">
         <v>2020</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="19">
+      <c r="B60" s="15"/>
+      <c r="C60" s="14">
         <v>135.80000000000001</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="21"/>
-      <c r="M60" s="22"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c r="M60" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2739,4 +2745,411 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558263C7-460D-48FD-A63B-52A71B1879D5}">
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1963</v>
+      </c>
+      <c r="B2">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1964</v>
+      </c>
+      <c r="B3">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1965</v>
+      </c>
+      <c r="B4">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1966</v>
+      </c>
+      <c r="B5">
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>1967</v>
+      </c>
+      <c r="B6">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>1968</v>
+      </c>
+      <c r="B7">
+        <v>13.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>1969</v>
+      </c>
+      <c r="B8">
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>1970</v>
+      </c>
+      <c r="B9">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>1971</v>
+      </c>
+      <c r="B10">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>1972</v>
+      </c>
+      <c r="B11">
+        <v>16.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>1973</v>
+      </c>
+      <c r="B12">
+        <v>18.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>1974</v>
+      </c>
+      <c r="B13">
+        <v>19.940000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>1975</v>
+      </c>
+      <c r="B14">
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1976</v>
+      </c>
+      <c r="B15">
+        <v>23.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1977</v>
+      </c>
+      <c r="B16">
+        <v>27.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1978</v>
+      </c>
+      <c r="B17">
+        <v>30.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1979</v>
+      </c>
+      <c r="B18">
+        <v>35.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1980</v>
+      </c>
+      <c r="B19">
+        <v>38.909999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1981</v>
+      </c>
+      <c r="B20">
+        <v>41.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1982</v>
+      </c>
+      <c r="B21">
+        <v>42.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1983</v>
+      </c>
+      <c r="B22">
+        <v>43.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1984</v>
+      </c>
+      <c r="B23">
+        <v>45.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1985</v>
+      </c>
+      <c r="B24">
+        <v>46.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1986</v>
+      </c>
+      <c r="B25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1987</v>
+      </c>
+      <c r="B26">
+        <v>50.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1988</v>
+      </c>
+      <c r="B27">
+        <v>52.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1989</v>
+      </c>
+      <c r="B28">
+        <v>54.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1990</v>
+      </c>
+      <c r="B29">
+        <v>55.66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>1991</v>
+      </c>
+      <c r="B30">
+        <v>56.38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>1992</v>
+      </c>
+      <c r="B31">
+        <v>57.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>1993</v>
+      </c>
+      <c r="B32">
+        <v>59.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1994</v>
+      </c>
+      <c r="B33">
+        <v>62.89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>1995</v>
+      </c>
+      <c r="B34">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>1996</v>
+      </c>
+      <c r="B35">
+        <v>65.98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>1997</v>
+      </c>
+      <c r="B36">
+        <v>67.510000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>1998</v>
+      </c>
+      <c r="B37">
+        <v>69.180000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1999</v>
+      </c>
+      <c r="B38">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>2000</v>
+      </c>
+      <c r="B39">
+        <v>75.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>2001</v>
+      </c>
+      <c r="B40">
+        <v>77.89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>2002</v>
+      </c>
+      <c r="B41">
+        <v>81.430000000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>2003</v>
+      </c>
+      <c r="B42">
+        <v>85.97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>2004</v>
+      </c>
+      <c r="B43">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>2005</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>2006</v>
+      </c>
+      <c r="B45">
+        <v>104.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>2007</v>
+      </c>
+      <c r="B46">
+        <v>104.94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>2008</v>
+      </c>
+      <c r="B47">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>2009</v>
+      </c>
+      <c r="B48">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>2010</v>
+      </c>
+      <c r="B49">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reference/IN10/raw_variables/CBHPI.xlsx
+++ b/reference/IN10/raw_variables/CBHPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\temp\IN10\raw_variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F38172-25AE-4945-AC1A-2395B8A2E868}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD268C84-9DED-4717-BC86-E635F4869E94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14120" windowHeight="10270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descrption" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="mimicdata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -202,10 +201,19 @@
     </r>
   </si>
   <si>
-    <t>value</t>
+    <t>date</t>
   </si>
   <si>
-    <t>date</t>
+    <t>FirstQ</t>
+  </si>
+  <si>
+    <t>SecondQ</t>
+  </si>
+  <si>
+    <t>ThirdQ</t>
+  </si>
+  <si>
+    <t>ForthQ</t>
   </si>
 </sst>
 </file>
@@ -2749,404 +2757,845 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558263C7-460D-48FD-A63B-52A71B1879D5}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1963</v>
       </c>
       <c r="B2">
-        <v>11.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>11.72</v>
+      </c>
+      <c r="C2">
+        <v>11.59</v>
+      </c>
+      <c r="D2">
+        <v>11.46</v>
+      </c>
+      <c r="E2">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1964</v>
       </c>
       <c r="B3">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>11.46</v>
+      </c>
+      <c r="C3">
+        <v>11.59</v>
+      </c>
+      <c r="D3">
+        <v>11.72</v>
+      </c>
+      <c r="E3">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1965</v>
       </c>
       <c r="B4">
-        <v>11.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>11.85</v>
+      </c>
+      <c r="C4">
+        <v>11.85</v>
+      </c>
+      <c r="D4">
+        <v>11.92</v>
+      </c>
+      <c r="E4">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1966</v>
       </c>
       <c r="B5">
-        <v>12.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>12.05</v>
+      </c>
+      <c r="C5">
+        <v>12.58</v>
+      </c>
+      <c r="D5">
+        <v>12.38</v>
+      </c>
+      <c r="E5">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1967</v>
       </c>
       <c r="B6">
-        <v>12.83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>12.78</v>
+      </c>
+      <c r="C6">
+        <v>12.71</v>
+      </c>
+      <c r="D6">
+        <v>12.71</v>
+      </c>
+      <c r="E6">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1968</v>
       </c>
       <c r="B7">
-        <v>13.51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>13.3</v>
+      </c>
+      <c r="C7">
+        <v>13.44</v>
+      </c>
+      <c r="D7">
+        <v>13.37</v>
+      </c>
+      <c r="E7">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1969</v>
       </c>
       <c r="B8">
-        <v>14.53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>14.29</v>
+      </c>
+      <c r="C8">
+        <v>14.49</v>
+      </c>
+      <c r="D8">
+        <v>14.62</v>
+      </c>
+      <c r="E8">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1970</v>
       </c>
       <c r="B9">
-        <v>14.94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>14.69</v>
+      </c>
+      <c r="C9">
+        <v>15.21</v>
+      </c>
+      <c r="D9">
+        <v>14.82</v>
+      </c>
+      <c r="E9">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>1971</v>
       </c>
       <c r="B10">
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>15.28</v>
+      </c>
+      <c r="C10">
+        <v>15.67</v>
+      </c>
+      <c r="D10">
+        <v>15.94</v>
+      </c>
+      <c r="E10">
+        <v>16.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>1972</v>
       </c>
       <c r="B11">
-        <v>16.78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C11">
+        <v>16.53</v>
+      </c>
+      <c r="D11">
+        <v>16.79</v>
+      </c>
+      <c r="E11">
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>1973</v>
       </c>
       <c r="B12">
-        <v>18.23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>17.45</v>
+      </c>
+      <c r="C12">
+        <v>18.05</v>
+      </c>
+      <c r="D12">
+        <v>18.7</v>
+      </c>
+      <c r="E12">
+        <v>18.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>1974</v>
       </c>
       <c r="B13">
-        <v>19.940000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>19.43</v>
+      </c>
+      <c r="C13">
+        <v>19.82</v>
+      </c>
+      <c r="D13">
+        <v>20.28</v>
+      </c>
+      <c r="E13">
+        <v>20.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>1975</v>
       </c>
       <c r="B14">
-        <v>22.07</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>21.6</v>
+      </c>
+      <c r="C14">
+        <v>21.93</v>
+      </c>
+      <c r="D14">
+        <v>22.13</v>
+      </c>
+      <c r="E14">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>1976</v>
       </c>
       <c r="B15">
-        <v>23.96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>23.05</v>
+      </c>
+      <c r="C15">
+        <v>23.78</v>
+      </c>
+      <c r="D15">
+        <v>24.5</v>
+      </c>
+      <c r="E15">
+        <v>24.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>1977</v>
       </c>
       <c r="B16">
-        <v>27.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>25.82</v>
+      </c>
+      <c r="C16">
+        <v>26.74</v>
+      </c>
+      <c r="D16">
+        <v>27.2</v>
+      </c>
+      <c r="E16">
+        <v>28.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>1978</v>
       </c>
       <c r="B17">
-        <v>30.93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>29.18</v>
+      </c>
+      <c r="C17">
+        <v>30.36</v>
+      </c>
+      <c r="D17">
+        <v>31.68</v>
+      </c>
+      <c r="E17">
+        <v>32.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>1979</v>
       </c>
       <c r="B18">
-        <v>35.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>33.619999999999997</v>
+      </c>
+      <c r="C18">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="D18">
+        <v>36.04</v>
+      </c>
+      <c r="E18">
+        <v>37.409999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>1980</v>
       </c>
       <c r="B19">
-        <v>38.909999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="C19">
+        <v>38.65</v>
+      </c>
+      <c r="D19">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="E19">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>1981</v>
       </c>
       <c r="B20">
-        <v>41.99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>41.73</v>
+      </c>
+      <c r="C20">
+        <v>42.25</v>
+      </c>
+      <c r="D20">
+        <v>42.25</v>
+      </c>
+      <c r="E20">
+        <v>42.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>1982</v>
       </c>
       <c r="B21">
-        <v>42.97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>43.62</v>
+      </c>
+      <c r="C21">
+        <v>43.43</v>
+      </c>
+      <c r="D21">
+        <v>43.03</v>
+      </c>
+      <c r="E21">
+        <v>42.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>1983</v>
       </c>
       <c r="B22">
-        <v>43.88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>43.69</v>
+      </c>
+      <c r="C22">
+        <v>43.82</v>
+      </c>
+      <c r="D22">
+        <v>44.47</v>
+      </c>
+      <c r="E22">
+        <v>44.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>1984</v>
       </c>
       <c r="B23">
-        <v>45.65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>44.87</v>
+      </c>
+      <c r="C23">
+        <v>45.85</v>
+      </c>
+      <c r="D23">
+        <v>46.3</v>
+      </c>
+      <c r="E23">
+        <v>46.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1985</v>
       </c>
       <c r="B24">
-        <v>46.24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>46.63</v>
+      </c>
+      <c r="C24">
+        <v>46.3</v>
+      </c>
+      <c r="D24">
+        <v>46.11</v>
+      </c>
+      <c r="E24">
+        <v>46.89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>1986</v>
       </c>
       <c r="B25">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>47.22</v>
+      </c>
+      <c r="C25">
+        <v>48.4</v>
+      </c>
+      <c r="D25">
+        <v>49.12</v>
+      </c>
+      <c r="E25">
+        <v>48.66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>1987</v>
       </c>
       <c r="B26">
-        <v>50.62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>49.9</v>
+      </c>
+      <c r="C26">
+        <v>50.75</v>
+      </c>
+      <c r="D26">
+        <v>51.54</v>
+      </c>
+      <c r="E26">
+        <v>51.67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>1988</v>
       </c>
       <c r="B27">
-        <v>52.52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>52.39</v>
+      </c>
+      <c r="C27">
+        <v>52.58</v>
+      </c>
+      <c r="D27">
+        <v>53.17</v>
+      </c>
+      <c r="E27">
+        <v>53.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1989</v>
       </c>
       <c r="B28">
-        <v>54.61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>54.15</v>
+      </c>
+      <c r="C28">
+        <v>55.2</v>
+      </c>
+      <c r="D28">
+        <v>55.2</v>
+      </c>
+      <c r="E28">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>1990</v>
       </c>
       <c r="B29">
-        <v>55.66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>56.11</v>
+      </c>
+      <c r="C29">
+        <v>55.53</v>
+      </c>
+      <c r="D29">
+        <v>56.31</v>
+      </c>
+      <c r="E29">
+        <v>55.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1991</v>
       </c>
       <c r="B30">
-        <v>56.38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>55.85</v>
+      </c>
+      <c r="C30">
+        <v>57.03</v>
+      </c>
+      <c r="D30">
+        <v>57.49</v>
+      </c>
+      <c r="E30">
+        <v>56.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>1992</v>
       </c>
       <c r="B31">
-        <v>57.16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>56.6</v>
+      </c>
+      <c r="C31">
+        <v>56.56</v>
+      </c>
+      <c r="D31">
+        <v>56.72</v>
+      </c>
+      <c r="E31">
+        <v>58.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>1993</v>
       </c>
       <c r="B32">
-        <v>59.36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>57.87</v>
+      </c>
+      <c r="C32">
+        <v>59.9</v>
+      </c>
+      <c r="D32">
+        <v>59.68</v>
+      </c>
+      <c r="E32">
+        <v>59.56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>1994</v>
       </c>
       <c r="B33">
-        <v>62.89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>62.45</v>
+      </c>
+      <c r="C33">
+        <v>62.87</v>
+      </c>
+      <c r="D33">
+        <v>63.11</v>
+      </c>
+      <c r="E33">
+        <v>63.44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>1995</v>
       </c>
       <c r="B34">
-        <v>64.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>63.71</v>
+      </c>
+      <c r="C34">
+        <v>64.19</v>
+      </c>
+      <c r="D34">
+        <v>64.680000000000007</v>
+      </c>
+      <c r="E34">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>1996</v>
       </c>
       <c r="B35">
-        <v>65.98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>65.930000000000007</v>
+      </c>
+      <c r="C35">
+        <v>65.67</v>
+      </c>
+      <c r="D35">
+        <v>67.11</v>
+      </c>
+      <c r="E35">
+        <v>65.63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>1997</v>
       </c>
       <c r="B36">
-        <v>67.510000000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="C36">
+        <v>67.77</v>
+      </c>
+      <c r="D36">
+        <v>67.540000000000006</v>
+      </c>
+      <c r="E36">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>1998</v>
       </c>
       <c r="B37">
-        <v>69.180000000000007</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>68.8</v>
+      </c>
+      <c r="C37">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="D37">
+        <v>69.37</v>
+      </c>
+      <c r="E37">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>1999</v>
       </c>
       <c r="B38">
-        <v>72.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>71.12</v>
+      </c>
+      <c r="C38">
+        <v>72.7</v>
+      </c>
+      <c r="D38">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="E38">
+        <v>72.98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>2000</v>
       </c>
       <c r="B39">
-        <v>75.64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>74.31</v>
+      </c>
+      <c r="C39">
+        <v>74.53</v>
+      </c>
+      <c r="D39">
+        <v>75.790000000000006</v>
+      </c>
+      <c r="E39">
+        <v>76.209999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>2001</v>
       </c>
       <c r="B40">
-        <v>77.89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="C40">
+        <v>77.319999999999993</v>
+      </c>
+      <c r="D40">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="E40">
+        <v>79.09</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>2002</v>
       </c>
       <c r="B41">
-        <v>81.430000000000007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>80.91</v>
+      </c>
+      <c r="C41">
+        <v>81.28</v>
+      </c>
+      <c r="D41">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E41">
+        <v>83.81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>2003</v>
       </c>
       <c r="B42">
-        <v>85.97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>84.25</v>
+      </c>
+      <c r="C42">
+        <v>84.61</v>
+      </c>
+      <c r="D42">
+        <v>87.11</v>
+      </c>
+      <c r="E42">
+        <v>88.52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>2004</v>
       </c>
       <c r="B43">
-        <v>92.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>91.33</v>
+      </c>
+      <c r="C43">
+        <v>91.8</v>
+      </c>
+      <c r="D43">
+        <v>94.82</v>
+      </c>
+      <c r="E43">
+        <v>95.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>2005</v>
       </c>
       <c r="B44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>96.52</v>
+      </c>
+      <c r="C44">
+        <v>99.16</v>
+      </c>
+      <c r="D44">
+        <v>101.36</v>
+      </c>
+      <c r="E44">
+        <v>103.92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>2006</v>
       </c>
       <c r="B45">
-        <v>104.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>104.07</v>
+      </c>
+      <c r="C45">
+        <v>105.66</v>
+      </c>
+      <c r="D45">
+        <v>104.83</v>
+      </c>
+      <c r="E45">
+        <v>103.84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>2007</v>
       </c>
       <c r="B46">
-        <v>104.94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>107.17</v>
+      </c>
+      <c r="C46">
+        <v>105.93</v>
+      </c>
+      <c r="D46">
+        <v>102.96</v>
+      </c>
+      <c r="E46">
+        <v>102.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>2008</v>
       </c>
       <c r="B47">
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>98.8</v>
+      </c>
+      <c r="C47">
+        <v>102.2</v>
+      </c>
+      <c r="D47">
+        <v>100.2</v>
+      </c>
+      <c r="E47">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>2009</v>
       </c>
       <c r="B48">
-        <v>95.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>92.7</v>
+      </c>
+      <c r="C48">
+        <v>96.2</v>
+      </c>
+      <c r="D48">
+        <v>94.3</v>
+      </c>
+      <c r="E48">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>2010</v>
       </c>
       <c r="B49">
-        <v>95</v>
+        <v>94.8</v>
+      </c>
+      <c r="C49">
+        <v>95.2</v>
+      </c>
+      <c r="D49">
+        <v>94.2</v>
+      </c>
+      <c r="E49">
+        <v>96.3</v>
       </c>
     </row>
   </sheetData>

--- a/reference/IN10/raw_variables/CBHPI.xlsx
+++ b/reference/IN10/raw_variables/CBHPI.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\temp\IN10\raw_variables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\GitHub\MMB_forecast_application\reference\IN10\raw_variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD268C84-9DED-4717-BC86-E635F4869E94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFECBF7-E1C2-48D5-8569-FC643131A800}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14120" windowHeight="10270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="190" windowWidth="15420" windowHeight="10270" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descrption" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="mimicdata" sheetId="3" r:id="rId3"/>
+    <sheet name="data_sheet_reshape" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -842,7 +843,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -2759,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558263C7-460D-48FD-A63B-52A71B1879D5}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -3601,4 +3602,1013 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACE7CB5-17BF-4818-B61C-1E8F98DBF171}">
+  <dimension ref="A1:E59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1963</v>
+      </c>
+      <c r="B2">
+        <v>11.7</v>
+      </c>
+      <c r="C2">
+        <v>11.6</v>
+      </c>
+      <c r="D2">
+        <v>11.5</v>
+      </c>
+      <c r="E2">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1964</v>
+      </c>
+      <c r="B3">
+        <v>11.5</v>
+      </c>
+      <c r="C3">
+        <v>11.6</v>
+      </c>
+      <c r="D3">
+        <v>11.7</v>
+      </c>
+      <c r="E3">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1965</v>
+      </c>
+      <c r="B4">
+        <v>11.9</v>
+      </c>
+      <c r="C4">
+        <v>11.9</v>
+      </c>
+      <c r="D4">
+        <v>11.9</v>
+      </c>
+      <c r="E4">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1966</v>
+      </c>
+      <c r="B5">
+        <v>12.1</v>
+      </c>
+      <c r="C5">
+        <v>12.6</v>
+      </c>
+      <c r="D5">
+        <v>12.4</v>
+      </c>
+      <c r="E5">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1967</v>
+      </c>
+      <c r="B6">
+        <v>12.8</v>
+      </c>
+      <c r="C6">
+        <v>12.7</v>
+      </c>
+      <c r="D6">
+        <v>12.7</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1968</v>
+      </c>
+      <c r="B7">
+        <v>13.3</v>
+      </c>
+      <c r="C7">
+        <v>13.4</v>
+      </c>
+      <c r="D7">
+        <v>13.4</v>
+      </c>
+      <c r="E7">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1969</v>
+      </c>
+      <c r="B8">
+        <v>14.3</v>
+      </c>
+      <c r="C8">
+        <v>14.5</v>
+      </c>
+      <c r="D8">
+        <v>14.6</v>
+      </c>
+      <c r="E8">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1970</v>
+      </c>
+      <c r="B9">
+        <v>14.7</v>
+      </c>
+      <c r="C9">
+        <v>15.2</v>
+      </c>
+      <c r="D9">
+        <v>14.8</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1971</v>
+      </c>
+      <c r="B10">
+        <v>15.3</v>
+      </c>
+      <c r="C10">
+        <v>15.7</v>
+      </c>
+      <c r="D10">
+        <v>15.9</v>
+      </c>
+      <c r="E10">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1972</v>
+      </c>
+      <c r="B11">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C11">
+        <v>16.5</v>
+      </c>
+      <c r="D11">
+        <v>16.8</v>
+      </c>
+      <c r="E11">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1973</v>
+      </c>
+      <c r="B12">
+        <v>17.5</v>
+      </c>
+      <c r="C12">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D12">
+        <v>18.7</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1974</v>
+      </c>
+      <c r="B13">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C13">
+        <v>19.8</v>
+      </c>
+      <c r="D13">
+        <v>20.3</v>
+      </c>
+      <c r="E13">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1975</v>
+      </c>
+      <c r="B14">
+        <v>21.6</v>
+      </c>
+      <c r="C14">
+        <v>21.9</v>
+      </c>
+      <c r="D14">
+        <v>22.1</v>
+      </c>
+      <c r="E14">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1976</v>
+      </c>
+      <c r="B15">
+        <v>23.1</v>
+      </c>
+      <c r="C15">
+        <v>23.8</v>
+      </c>
+      <c r="D15">
+        <v>24.5</v>
+      </c>
+      <c r="E15">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1977</v>
+      </c>
+      <c r="B16">
+        <v>25.8</v>
+      </c>
+      <c r="C16">
+        <v>26.7</v>
+      </c>
+      <c r="D16">
+        <v>27.2</v>
+      </c>
+      <c r="E16">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>1978</v>
+      </c>
+      <c r="B17">
+        <v>29.2</v>
+      </c>
+      <c r="C17">
+        <v>30.4</v>
+      </c>
+      <c r="D17">
+        <v>31.7</v>
+      </c>
+      <c r="E17">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1979</v>
+      </c>
+      <c r="B18">
+        <v>33.6</v>
+      </c>
+      <c r="C18">
+        <v>35.5</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1980</v>
+      </c>
+      <c r="B19">
+        <v>38.1</v>
+      </c>
+      <c r="C19">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D19">
+        <v>39.6</v>
+      </c>
+      <c r="E19">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1981</v>
+      </c>
+      <c r="B20">
+        <v>41.7</v>
+      </c>
+      <c r="C20">
+        <v>42.3</v>
+      </c>
+      <c r="D20">
+        <v>42.3</v>
+      </c>
+      <c r="E20">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1982</v>
+      </c>
+      <c r="B21">
+        <v>43.6</v>
+      </c>
+      <c r="C21">
+        <v>43.4</v>
+      </c>
+      <c r="D21">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1983</v>
+      </c>
+      <c r="B22">
+        <v>43.7</v>
+      </c>
+      <c r="C22">
+        <v>43.8</v>
+      </c>
+      <c r="D22">
+        <v>44.5</v>
+      </c>
+      <c r="E22">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1984</v>
+      </c>
+      <c r="B23">
+        <v>44.9</v>
+      </c>
+      <c r="C23">
+        <v>45.9</v>
+      </c>
+      <c r="D23">
+        <v>46.3</v>
+      </c>
+      <c r="E23">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>1985</v>
+      </c>
+      <c r="B24">
+        <v>46.6</v>
+      </c>
+      <c r="C24">
+        <v>46.3</v>
+      </c>
+      <c r="D24">
+        <v>46.1</v>
+      </c>
+      <c r="E24">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1986</v>
+      </c>
+      <c r="B25">
+        <v>47.2</v>
+      </c>
+      <c r="C25">
+        <v>48.4</v>
+      </c>
+      <c r="D25">
+        <v>49.1</v>
+      </c>
+      <c r="E25">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1987</v>
+      </c>
+      <c r="B26">
+        <v>49.9</v>
+      </c>
+      <c r="C26">
+        <v>50.8</v>
+      </c>
+      <c r="D26">
+        <v>51.5</v>
+      </c>
+      <c r="E26">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>1988</v>
+      </c>
+      <c r="B27">
+        <v>52.4</v>
+      </c>
+      <c r="C27">
+        <v>52.6</v>
+      </c>
+      <c r="D27">
+        <v>53.2</v>
+      </c>
+      <c r="E27">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>1989</v>
+      </c>
+      <c r="B28">
+        <v>54.2</v>
+      </c>
+      <c r="C28">
+        <v>55.2</v>
+      </c>
+      <c r="D28">
+        <v>55.2</v>
+      </c>
+      <c r="E28">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>1990</v>
+      </c>
+      <c r="B29">
+        <v>56.1</v>
+      </c>
+      <c r="C29">
+        <v>55.5</v>
+      </c>
+      <c r="D29">
+        <v>56.3</v>
+      </c>
+      <c r="E29">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>1991</v>
+      </c>
+      <c r="B30">
+        <v>55.9</v>
+      </c>
+      <c r="C30">
+        <v>57</v>
+      </c>
+      <c r="D30">
+        <v>57.5</v>
+      </c>
+      <c r="E30">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>1992</v>
+      </c>
+      <c r="B31">
+        <v>56.6</v>
+      </c>
+      <c r="C31">
+        <v>56.6</v>
+      </c>
+      <c r="D31">
+        <v>56.7</v>
+      </c>
+      <c r="E31">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>1993</v>
+      </c>
+      <c r="B32">
+        <v>57.9</v>
+      </c>
+      <c r="C32">
+        <v>59.9</v>
+      </c>
+      <c r="D32">
+        <v>59.7</v>
+      </c>
+      <c r="E32">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>1994</v>
+      </c>
+      <c r="B33">
+        <v>62.4</v>
+      </c>
+      <c r="C33">
+        <v>62.9</v>
+      </c>
+      <c r="D33">
+        <v>63.1</v>
+      </c>
+      <c r="E33">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>1995</v>
+      </c>
+      <c r="B34">
+        <v>63.7</v>
+      </c>
+      <c r="C34">
+        <v>64.2</v>
+      </c>
+      <c r="D34">
+        <v>64.7</v>
+      </c>
+      <c r="E34">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>1996</v>
+      </c>
+      <c r="B35">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="C35">
+        <v>65.7</v>
+      </c>
+      <c r="D35">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E35">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>1997</v>
+      </c>
+      <c r="B36">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="C36">
+        <v>67.8</v>
+      </c>
+      <c r="D36">
+        <v>67.5</v>
+      </c>
+      <c r="E36">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>1998</v>
+      </c>
+      <c r="B37">
+        <v>68.8</v>
+      </c>
+      <c r="C37">
+        <v>68.2</v>
+      </c>
+      <c r="D37">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="E37">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>1999</v>
+      </c>
+      <c r="B38">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="C38">
+        <v>72.7</v>
+      </c>
+      <c r="D38">
+        <v>73</v>
+      </c>
+      <c r="E38">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>2000</v>
+      </c>
+      <c r="B39">
+        <v>74.3</v>
+      </c>
+      <c r="C39">
+        <v>74.5</v>
+      </c>
+      <c r="D39">
+        <v>75.8</v>
+      </c>
+      <c r="E39">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>2001</v>
+      </c>
+      <c r="B40">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="C40">
+        <v>77.3</v>
+      </c>
+      <c r="D40">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E40">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>2002</v>
+      </c>
+      <c r="B41">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="C41">
+        <v>81.3</v>
+      </c>
+      <c r="D41">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E41">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>2003</v>
+      </c>
+      <c r="B42">
+        <v>84.3</v>
+      </c>
+      <c r="C42">
+        <v>84.6</v>
+      </c>
+      <c r="D42">
+        <v>87.1</v>
+      </c>
+      <c r="E42">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>2004</v>
+      </c>
+      <c r="B43">
+        <v>91.3</v>
+      </c>
+      <c r="C43">
+        <v>91.8</v>
+      </c>
+      <c r="D43">
+        <v>94.8</v>
+      </c>
+      <c r="E43">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>2005</v>
+      </c>
+      <c r="B44">
+        <v>96.5</v>
+      </c>
+      <c r="C44">
+        <v>99.2</v>
+      </c>
+      <c r="D44">
+        <v>101.4</v>
+      </c>
+      <c r="E44">
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>2006</v>
+      </c>
+      <c r="B45">
+        <v>104.1</v>
+      </c>
+      <c r="C45">
+        <v>105.7</v>
+      </c>
+      <c r="D45">
+        <v>104.8</v>
+      </c>
+      <c r="E45">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>2007</v>
+      </c>
+      <c r="B46">
+        <v>107.2</v>
+      </c>
+      <c r="C46">
+        <v>105.9</v>
+      </c>
+      <c r="D46">
+        <v>103</v>
+      </c>
+      <c r="E46">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>2008</v>
+      </c>
+      <c r="B47">
+        <v>98.8</v>
+      </c>
+      <c r="C47">
+        <v>102.2</v>
+      </c>
+      <c r="D47">
+        <v>100.2</v>
+      </c>
+      <c r="E47">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>2009</v>
+      </c>
+      <c r="B48">
+        <v>92.7</v>
+      </c>
+      <c r="C48">
+        <v>96.2</v>
+      </c>
+      <c r="D48">
+        <v>94.3</v>
+      </c>
+      <c r="E48">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>2010</v>
+      </c>
+      <c r="B49">
+        <v>94.8</v>
+      </c>
+      <c r="C49">
+        <v>95.2</v>
+      </c>
+      <c r="D49">
+        <v>94.2</v>
+      </c>
+      <c r="E49">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>2011</v>
+      </c>
+      <c r="B50">
+        <v>93.7</v>
+      </c>
+      <c r="C50">
+        <v>94.5</v>
+      </c>
+      <c r="D50">
+        <v>93</v>
+      </c>
+      <c r="E50">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>2012</v>
+      </c>
+      <c r="B51">
+        <v>94</v>
+      </c>
+      <c r="C51">
+        <v>95.2</v>
+      </c>
+      <c r="D51">
+        <v>98.9</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>2013</v>
+      </c>
+      <c r="B52">
+        <v>101.3</v>
+      </c>
+      <c r="C52">
+        <v>104.7</v>
+      </c>
+      <c r="D52">
+        <v>104.8</v>
+      </c>
+      <c r="E52">
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>2014</v>
+      </c>
+      <c r="B53">
+        <v>106.8</v>
+      </c>
+      <c r="C53">
+        <v>112.7</v>
+      </c>
+      <c r="D53">
+        <v>112.1</v>
+      </c>
+      <c r="E53">
+        <v>114.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>2015</v>
+      </c>
+      <c r="B54">
+        <v>111</v>
+      </c>
+      <c r="C54">
+        <v>110.7</v>
+      </c>
+      <c r="D54">
+        <v>112.8</v>
+      </c>
+      <c r="E54">
+        <v>116.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>2016</v>
+      </c>
+      <c r="B55">
+        <v>119</v>
+      </c>
+      <c r="C55">
+        <v>119</v>
+      </c>
+      <c r="D55">
+        <v>122.4</v>
+      </c>
+      <c r="E55">
+        <v>123.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>2017</v>
+      </c>
+      <c r="B56">
+        <v>124.7</v>
+      </c>
+      <c r="C56">
+        <v>126.4</v>
+      </c>
+      <c r="D56">
+        <v>128.4</v>
+      </c>
+      <c r="E56">
+        <v>127.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>2018</v>
+      </c>
+      <c r="B57">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="C57">
+        <v>131</v>
+      </c>
+      <c r="D57">
+        <v>132.5</v>
+      </c>
+      <c r="E57">
+        <v>135.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>2019</v>
+      </c>
+      <c r="B58">
+        <v>129.9</v>
+      </c>
+      <c r="C58">
+        <v>133.9</v>
+      </c>
+      <c r="D58">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="E58">
+        <v>137.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>2020</v>
+      </c>
+      <c r="B59">
+        <v>135.80000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>